--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K562"/>
+  <dimension ref="A1:K566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19908,13 +19908,159 @@
       <c r="H562" t="n">
         <v>361.1054545454546</v>
       </c>
-      <c r="I562" t="inlineStr"/>
+      <c r="I562" t="n">
+        <v>369.74</v>
+      </c>
       <c r="J562" t="n">
         <v>374.82</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>353.1218181818182</v>
+      </c>
+      <c r="C563" t="n">
+        <v>350.2647619047619</v>
+      </c>
+      <c r="D563" t="n">
+        <v>359.44</v>
+      </c>
+      <c r="E563" t="n">
+        <v>363.5788888888889</v>
+      </c>
+      <c r="F563" t="n">
+        <v>365.8318181818182</v>
+      </c>
+      <c r="G563" t="n">
+        <v>341.9918181818182</v>
+      </c>
+      <c r="H563" t="n">
+        <v>352.0418181818182</v>
+      </c>
+      <c r="I563" t="n">
+        <v>361.91</v>
+      </c>
+      <c r="J563" t="n">
+        <v>370.27</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>363.5745454545454</v>
+      </c>
+      <c r="C564" t="n">
+        <v>357.0995238095238</v>
+      </c>
+      <c r="D564" t="n">
+        <v>359.19</v>
+      </c>
+      <c r="E564" t="n">
+        <v>368.7911111111111</v>
+      </c>
+      <c r="F564" t="n">
+        <v>363.4645454545454</v>
+      </c>
+      <c r="G564" t="n">
+        <v>351.7945454545454</v>
+      </c>
+      <c r="H564" t="n">
+        <v>359.0645454545455</v>
+      </c>
+      <c r="I564" t="n">
+        <v>362.13</v>
+      </c>
+      <c r="J564" t="n">
+        <v>373.21</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="n">
+        <v>323.8072727272727</v>
+      </c>
+      <c r="H565" t="n">
+        <v>353.9172727272727</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>386.76</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>366.6872727272727</v>
+      </c>
+      <c r="C566" t="n">
+        <v>359.9528571428572</v>
+      </c>
+      <c r="D566" t="n">
+        <v>366.68</v>
+      </c>
+      <c r="E566" t="n">
+        <v>374.4666666666667</v>
+      </c>
+      <c r="F566" t="n">
+        <v>357.7872727272728</v>
+      </c>
+      <c r="G566" t="n">
+        <v>351.9572727272728</v>
+      </c>
+      <c r="H566" t="n">
+        <v>358.7172727272728</v>
+      </c>
+      <c r="I566" t="n">
+        <v>362.49</v>
+      </c>
+      <c r="J566" t="n">
+        <v>376.26</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -19929,7 +20075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B658"/>
+  <dimension ref="A1:B665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26517,6 +26663,76 @@
       </c>
       <c r="B658" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -26685,28 +26901,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1131810108748118</v>
+        <v>-0.1049735817771648</v>
       </c>
       <c r="J2" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K2" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005458546549673815</v>
+        <v>0.004746069384206519</v>
       </c>
       <c r="M2" t="n">
-        <v>7.54942038243878</v>
+        <v>7.544727205480036</v>
       </c>
       <c r="N2" t="n">
-        <v>102.6453831489032</v>
+        <v>102.3483400289704</v>
       </c>
       <c r="O2" t="n">
-        <v>10.13140578344897</v>
+        <v>10.11673564095506</v>
       </c>
       <c r="P2" t="n">
-        <v>358.6455777856489</v>
+        <v>358.5526713166144</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26756,28 +26972,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-6.473369072987074</v>
+        <v>-6.419427782537606</v>
       </c>
       <c r="J3" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K3" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3884259592850602</v>
+        <v>0.3875825443379803</v>
       </c>
       <c r="M3" t="n">
-        <v>39.91109817429118</v>
+        <v>39.77537902263695</v>
       </c>
       <c r="N3" t="n">
-        <v>2844.386286562674</v>
+        <v>2828.466126386732</v>
       </c>
       <c r="O3" t="n">
-        <v>53.33278810040474</v>
+        <v>53.183325642411</v>
       </c>
       <c r="P3" t="n">
-        <v>488.9873595349999</v>
+        <v>488.3661685031613</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26833,28 +27049,28 @@
         <v>0.0544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06906359411972861</v>
+        <v>0.06263079678055028</v>
       </c>
       <c r="J4" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K4" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002031487034921398</v>
+        <v>0.001691508163290001</v>
       </c>
       <c r="M4" t="n">
-        <v>7.559737295434518</v>
+        <v>7.543401233590402</v>
       </c>
       <c r="N4" t="n">
-        <v>103.3368655656569</v>
+        <v>102.851651231703</v>
       </c>
       <c r="O4" t="n">
-        <v>10.16547419285775</v>
+        <v>10.14158031234299</v>
       </c>
       <c r="P4" t="n">
-        <v>364.4604767580468</v>
+        <v>364.5319956357528</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26910,28 +27126,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04557971342619933</v>
+        <v>0.04793232213258902</v>
       </c>
       <c r="J5" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K5" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009133282135479481</v>
+        <v>0.001021799791406597</v>
       </c>
       <c r="M5" t="n">
-        <v>7.73039352589971</v>
+        <v>7.707017516587482</v>
       </c>
       <c r="N5" t="n">
-        <v>102.2666790128698</v>
+        <v>101.7469308251613</v>
       </c>
       <c r="O5" t="n">
-        <v>10.11269889855669</v>
+        <v>10.08696836642018</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0926312619204</v>
+        <v>366.0663834962106</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26987,28 +27203,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05445108748164964</v>
+        <v>-0.05439157843301286</v>
       </c>
       <c r="J6" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K6" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001258362763885801</v>
+        <v>0.001272304218324916</v>
       </c>
       <c r="M6" t="n">
-        <v>7.360382754302761</v>
+        <v>7.331302061680048</v>
       </c>
       <c r="N6" t="n">
-        <v>103.9855492610174</v>
+        <v>103.3584206763964</v>
       </c>
       <c r="O6" t="n">
-        <v>10.19733049680245</v>
+        <v>10.16653434934425</v>
       </c>
       <c r="P6" t="n">
-        <v>363.6827219261698</v>
+        <v>363.6821775672358</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -27064,28 +27280,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1604779684910517</v>
+        <v>-0.1670576499631151</v>
       </c>
       <c r="J7" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K7" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0127188896042203</v>
+        <v>0.01381770197152199</v>
       </c>
       <c r="M7" t="n">
-        <v>6.936772680982444</v>
+        <v>6.965520956331447</v>
       </c>
       <c r="N7" t="n">
-        <v>88.16212984328529</v>
+        <v>88.65040292704133</v>
       </c>
       <c r="O7" t="n">
-        <v>9.389469092727516</v>
+        <v>9.415434293065898</v>
       </c>
       <c r="P7" t="n">
-        <v>349.9509572999646</v>
+        <v>350.0248066603455</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -27141,28 +27357,28 @@
         <v>0.0598</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2462328004390153</v>
+        <v>-0.2319748286456669</v>
       </c>
       <c r="J8" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K8" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02571811789262912</v>
+        <v>0.02317889892101033</v>
       </c>
       <c r="M8" t="n">
-        <v>7.380499537598177</v>
+        <v>7.368152103990291</v>
       </c>
       <c r="N8" t="n">
-        <v>101.9540458660559</v>
+        <v>101.5943793710367</v>
       </c>
       <c r="O8" t="n">
-        <v>10.09722961341654</v>
+        <v>10.07940372100635</v>
       </c>
       <c r="P8" t="n">
-        <v>354.7695438013332</v>
+        <v>354.6098284062995</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -27218,28 +27434,28 @@
         <v>0.0529</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1470177229258849</v>
+        <v>-0.1346257680998137</v>
       </c>
       <c r="J9" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K9" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009564944539546594</v>
+        <v>0.008144249161211592</v>
       </c>
       <c r="M9" t="n">
-        <v>7.251512818195212</v>
+        <v>7.23369926924936</v>
       </c>
       <c r="N9" t="n">
-        <v>99.63731417187689</v>
+        <v>99.18150079561451</v>
       </c>
       <c r="O9" t="n">
-        <v>9.981849236082304</v>
+        <v>9.958990952682631</v>
       </c>
       <c r="P9" t="n">
-        <v>361.3912277003179</v>
+        <v>361.2534823680443</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -27295,28 +27511,28 @@
         <v>0.0461</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1326371397537478</v>
+        <v>-0.1077980887966775</v>
       </c>
       <c r="J10" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K10" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007257809325689646</v>
+        <v>0.004820104851923745</v>
       </c>
       <c r="M10" t="n">
-        <v>7.911308833224592</v>
+        <v>7.951860949841277</v>
       </c>
       <c r="N10" t="n">
-        <v>108.1788441991175</v>
+        <v>108.926293690717</v>
       </c>
       <c r="O10" t="n">
-        <v>10.4009059316541</v>
+        <v>10.43677601995544</v>
       </c>
       <c r="P10" t="n">
-        <v>367.6807131990569</v>
+        <v>367.4052763518501</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -27353,7 +27569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K562"/>
+  <dimension ref="A1:K566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54475,7 +54691,11 @@
           <t>-45.3658489932033,170.86358947490197</t>
         </is>
       </c>
-      <c r="I562" t="inlineStr"/>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>-45.366307299707216,170.8640355457089</t>
+        </is>
+      </c>
       <c r="J562" t="inlineStr">
         <is>
           <t>-45.36660596780416,170.86470290036127</t>
@@ -54484,6 +54704,210 @@
       <c r="K562" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-45.36228683413877,170.86235193550084</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-45.362917750392874,170.86240004041164</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-45.36351834243867,170.8624286394239</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>-45.36406713994255,170.8627438247128</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>-45.364638819973784,170.86308959596383</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>-45.36529732323887,170.86315419944043</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>-45.365875230045425,170.863479927657</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>-45.36635048217954,170.8639565681851</t>
+        </is>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>-45.366637633312884,170.8646660829441</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>-45.362279503422776,170.8624849504914</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-45.3629189894907,170.8624872640435</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-45.36351854008779,170.86242546064187</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>-45.364052354691815,170.86280696428565</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>-45.36464643417068,170.86306137475896</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>-45.36527144138827,170.863273822382</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>-45.36585490110739,170.86356480755194</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>-45.36634926887969,170.86395878722317</t>
+        </is>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>-45.366617172524094,170.8646898726645</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>-45.3653453350183,170.86293229267068</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>-45.36586980110683,170.8635025952645</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>-45.366522871880875,170.86479951554077</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-45.36227732037206,170.86252456114227</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-45.362919506761756,170.86252367761753</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-45.36351261848143,170.86252069694376</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>-45.36403625508611,170.86287571652792</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>-45.364664694763626,170.8629936936904</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>-45.36527101174319,170.86327580814637</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>-45.365855906371586,170.86356061025626</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>-45.36634728347985,170.86396241837613</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>-45.36659594618994,170.8647145524583</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -26746,7 +26746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26837,35 +26837,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26924,27 +26929,28 @@
       <c r="P2" t="n">
         <v>358.5526713166144</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.8578583071568 -45.36253439439864, 170.8690749016589 -45.361916121484306)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8578583071568</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.36253439439864</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8690749016589</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.36191612148431</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.8634666044078</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.36222525794147</v>
       </c>
     </row>
@@ -26995,27 +27001,28 @@
       <c r="P3" t="n">
         <v>488.3661685031613</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.85793005188734 -45.362854160531484, 170.8691787916574 -45.363013850488514)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.8579300518873</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.36285416053148</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8691787916574</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.36301385048851</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8635544217724</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.36293400551</v>
       </c>
     </row>
@@ -27072,27 +27079,28 @@
       <c r="P4" t="n">
         <v>364.5319956357528</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.8578582942155 -45.363802422582154, 170.8690657445839 -45.36310546646476)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.8578582942155</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.36380242258215</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.8690657445839</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.36310546646476</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.8634620193997</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.36345394452346</v>
       </c>
     </row>
@@ -27149,27 +27157,28 @@
       <c r="P5" t="n">
         <v>366.0663834962106</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.8583394414351 -45.36509839826891, 170.86901565061135 -45.36259827064793)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.8583394414351</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.36509839826891</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.8690156506113</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.36259827064793</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.8636775460232</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.36384833445842</v>
       </c>
     </row>
@@ -27226,27 +27235,28 @@
       <c r="P6" t="n">
         <v>363.6821775672358</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.85872828127376 -45.365815412486924, 170.86923459344328 -45.36298065745434)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.8587282812738</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.36581541248692</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.8692345934433</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.36298065745434</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.8639814373585</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.36439803497063</v>
       </c>
     </row>
@@ -27303,27 +27313,28 @@
       <c r="P7" t="n">
         <v>350.0248066603455</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.85898079846558 -45.36620019430987, 170.86973575845363 -45.363873101229565)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.8589807984656</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.36620019430987</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.8697357584536</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.36387310122957</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.8643582784596</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.36503664776971</v>
       </c>
     </row>
@@ -27380,27 +27391,28 @@
       <c r="P8" t="n">
         <v>354.6098284062995</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.85922491383195 -45.3668942155949, 170.86987689956965 -45.364342920311294)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.859224913832</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.3668942155949</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.8698768995696</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.36434292031129</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.8645509067008</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.36561856795309</v>
       </c>
     </row>
@@ -27457,27 +27469,28 @@
       <c r="P9" t="n">
         <v>361.2534823680443</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.86030602202393 -45.3683463544907, 170.86919276335666 -45.36348722716427)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.8603060220239</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.3683463544907</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.8691927633567</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.36348722716427</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.8647493926903</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.36591679082748</v>
       </c>
     </row>
@@ -27534,27 +27547,28 @@
       <c r="P10" t="n">
         <v>367.4052763518501</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.8616698158381 -45.36921446690113, 170.8687973343358 -45.36308417165143)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.8616698158381</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.36921446690113</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.8687973343358</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.36308417165143</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.865233575087</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.36614931927627</v>
       </c>
     </row>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K566"/>
+  <dimension ref="A1:K572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20059,6 +20059,240 @@
         <v>376.26</v>
       </c>
       <c r="K566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>361.4636363636364</v>
+      </c>
+      <c r="C567" t="n">
+        <v>356.7214285714285</v>
+      </c>
+      <c r="D567" t="n">
+        <v>362.38</v>
+      </c>
+      <c r="E567" t="n">
+        <v>372.3233333333333</v>
+      </c>
+      <c r="F567" t="n">
+        <v>361.7836363636364</v>
+      </c>
+      <c r="G567" t="n">
+        <v>348.3136363636364</v>
+      </c>
+      <c r="H567" t="n">
+        <v>356.4236363636364</v>
+      </c>
+      <c r="I567" t="n">
+        <v>359.79</v>
+      </c>
+      <c r="J567" t="n">
+        <v>378.13</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>349.0790909090909</v>
+      </c>
+      <c r="C568" t="n">
+        <v>344.4919047619048</v>
+      </c>
+      <c r="D568" t="n">
+        <v>351.96</v>
+      </c>
+      <c r="E568" t="n">
+        <v>360.4322222222222</v>
+      </c>
+      <c r="F568" t="n">
+        <v>352.4590909090909</v>
+      </c>
+      <c r="G568" t="n">
+        <v>339.259090909091</v>
+      </c>
+      <c r="H568" t="n">
+        <v>346.699090909091</v>
+      </c>
+      <c r="I568" t="n">
+        <v>355.51</v>
+      </c>
+      <c r="J568" t="n">
+        <v>356.24</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>345.4172727272727</v>
+      </c>
+      <c r="C569" t="n">
+        <v>334.082380952381</v>
+      </c>
+      <c r="D569" t="n">
+        <v>352.97</v>
+      </c>
+      <c r="E569" t="n">
+        <v>353.6377777777778</v>
+      </c>
+      <c r="F569" t="n">
+        <v>342.8172727272727</v>
+      </c>
+      <c r="G569" t="n">
+        <v>332.7472727272728</v>
+      </c>
+      <c r="H569" t="n">
+        <v>341.2772727272728</v>
+      </c>
+      <c r="I569" t="n">
+        <v>345.33</v>
+      </c>
+      <c r="J569" t="n">
+        <v>347.76</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>348.7581818181818</v>
+      </c>
+      <c r="C570" t="n">
+        <v>346.6552380952381</v>
+      </c>
+      <c r="D570" t="n">
+        <v>353.57</v>
+      </c>
+      <c r="E570" t="n">
+        <v>351.2411111111111</v>
+      </c>
+      <c r="F570" t="n">
+        <v>346.9981818181818</v>
+      </c>
+      <c r="G570" t="n">
+        <v>342.5581818181818</v>
+      </c>
+      <c r="H570" t="n">
+        <v>342.2181818181818</v>
+      </c>
+      <c r="I570" t="n">
+        <v>348.16</v>
+      </c>
+      <c r="J570" t="n">
+        <v>351.15</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>359.7181818181818</v>
+      </c>
+      <c r="C571" t="n">
+        <v>360.0538095238095</v>
+      </c>
+      <c r="D571" t="n">
+        <v>374.51</v>
+      </c>
+      <c r="E571" t="n">
+        <v>364.8244444444445</v>
+      </c>
+      <c r="F571" t="n">
+        <v>365.2481818181818</v>
+      </c>
+      <c r="G571" t="n">
+        <v>344.0981818181818</v>
+      </c>
+      <c r="H571" t="n">
+        <v>351.8781818181818</v>
+      </c>
+      <c r="I571" t="n">
+        <v>361.36</v>
+      </c>
+      <c r="J571" t="n">
+        <v>368.15</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>351.6845454545455</v>
+      </c>
+      <c r="C572" t="n">
+        <v>356.7466666666667</v>
+      </c>
+      <c r="D572" t="n">
+        <v>364.29</v>
+      </c>
+      <c r="E572" t="n">
+        <v>358.3377777777778</v>
+      </c>
+      <c r="F572" t="n">
+        <v>359.7445454545455</v>
+      </c>
+      <c r="G572" t="n">
+        <v>342.2645454545454</v>
+      </c>
+      <c r="H572" t="n">
+        <v>344.1945454545454</v>
+      </c>
+      <c r="I572" t="n">
+        <v>358.23</v>
+      </c>
+      <c r="J572" t="n">
+        <v>356.76</v>
+      </c>
+      <c r="K572" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20075,7 +20309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B665"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26733,6 +26967,66 @@
       </c>
       <c r="B665" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -26906,28 +27200,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1049735817771648</v>
+        <v>-0.1145084797332526</v>
       </c>
       <c r="J2" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K2" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004746069384206519</v>
+        <v>0.005771166938568051</v>
       </c>
       <c r="M2" t="n">
-        <v>7.544727205480036</v>
+        <v>7.528439963343391</v>
       </c>
       <c r="N2" t="n">
-        <v>102.3483400289704</v>
+        <v>101.5194563916145</v>
       </c>
       <c r="O2" t="n">
-        <v>10.11673564095506</v>
+        <v>10.07568639803832</v>
       </c>
       <c r="P2" t="n">
-        <v>358.5526713166144</v>
+        <v>358.6615431960274</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26978,28 +27272,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-6.419427782537606</v>
+        <v>-6.331475131818467</v>
       </c>
       <c r="J3" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K3" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3875825443379803</v>
+        <v>0.3876653811109521</v>
       </c>
       <c r="M3" t="n">
-        <v>39.77537902263695</v>
+        <v>39.44570814088932</v>
       </c>
       <c r="N3" t="n">
-        <v>2828.466126386732</v>
+        <v>2793.509332687129</v>
       </c>
       <c r="O3" t="n">
-        <v>53.183325642411</v>
+        <v>52.85365959597432</v>
       </c>
       <c r="P3" t="n">
-        <v>488.3661685031613</v>
+        <v>487.3421264459035</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27056,28 +27350,28 @@
         <v>0.0544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06263079678055028</v>
+        <v>0.04498288037960756</v>
       </c>
       <c r="J4" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K4" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001691508163290001</v>
+        <v>0.0008866714527804298</v>
       </c>
       <c r="M4" t="n">
-        <v>7.543401233590402</v>
+        <v>7.569394878398024</v>
       </c>
       <c r="N4" t="n">
-        <v>102.851651231703</v>
+        <v>102.8364851716196</v>
       </c>
       <c r="O4" t="n">
-        <v>10.14158031234299</v>
+        <v>10.14083256797092</v>
       </c>
       <c r="P4" t="n">
-        <v>364.5319956357528</v>
+        <v>364.7303191012319</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27134,28 +27428,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04793232213258902</v>
+        <v>0.02860842903524592</v>
       </c>
       <c r="J5" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K5" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001021799791406597</v>
+        <v>0.0003693782384137645</v>
       </c>
       <c r="M5" t="n">
-        <v>7.707017516587482</v>
+        <v>7.720583383664052</v>
       </c>
       <c r="N5" t="n">
-        <v>101.7469308251613</v>
+        <v>101.7049768086005</v>
       </c>
       <c r="O5" t="n">
-        <v>10.08696836642018</v>
+        <v>10.08488853724227</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0663834962106</v>
+        <v>366.2831385242563</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27212,28 +27506,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05439157843301286</v>
+        <v>-0.07559115704730057</v>
       </c>
       <c r="J6" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K6" t="n">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001272304218324916</v>
+        <v>0.00248595646736427</v>
       </c>
       <c r="M6" t="n">
-        <v>7.331302061680048</v>
+        <v>7.345811170612455</v>
       </c>
       <c r="N6" t="n">
-        <v>103.3584206763964</v>
+        <v>103.5621949934867</v>
       </c>
       <c r="O6" t="n">
-        <v>10.16653434934425</v>
+        <v>10.17655123278445</v>
       </c>
       <c r="P6" t="n">
-        <v>363.6821775672358</v>
+        <v>363.9210986097381</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27290,28 +27584,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1670576499631151</v>
+        <v>-0.1787356564585659</v>
       </c>
       <c r="J7" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K7" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01381770197152199</v>
+        <v>0.01611866283824981</v>
       </c>
       <c r="M7" t="n">
-        <v>6.965520956331447</v>
+        <v>6.950529137822825</v>
       </c>
       <c r="N7" t="n">
-        <v>88.65040292704133</v>
+        <v>88.00850866338385</v>
       </c>
       <c r="O7" t="n">
-        <v>9.415434293065898</v>
+        <v>9.381285021967079</v>
       </c>
       <c r="P7" t="n">
-        <v>350.0248066603455</v>
+        <v>350.1570902876945</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27368,28 +27662,28 @@
         <v>0.0598</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2319748286456669</v>
+        <v>-0.2364158318215005</v>
       </c>
       <c r="J8" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K8" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02317889892101033</v>
+        <v>0.02460932687133366</v>
       </c>
       <c r="M8" t="n">
-        <v>7.368152103990291</v>
+        <v>7.34234958442856</v>
       </c>
       <c r="N8" t="n">
-        <v>101.5943793710367</v>
+        <v>100.6467935295647</v>
       </c>
       <c r="O8" t="n">
-        <v>10.07940372100635</v>
+        <v>10.03228755217696</v>
       </c>
       <c r="P8" t="n">
-        <v>354.6098284062995</v>
+        <v>354.6601942750611</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27446,28 +27740,28 @@
         <v>0.0529</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1346257680998137</v>
+        <v>-0.1434721474875466</v>
       </c>
       <c r="J9" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K9" t="n">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008144249161211592</v>
+        <v>0.009443272354068388</v>
       </c>
       <c r="M9" t="n">
-        <v>7.23369926924936</v>
+        <v>7.210758451953709</v>
       </c>
       <c r="N9" t="n">
-        <v>99.18150079561451</v>
+        <v>98.4341390099227</v>
       </c>
       <c r="O9" t="n">
-        <v>9.958990952682631</v>
+        <v>9.921398037067291</v>
       </c>
       <c r="P9" t="n">
-        <v>361.2534823680443</v>
+        <v>361.3531252703766</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27524,28 +27818,28 @@
         <v>0.0461</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1077980887966775</v>
+        <v>-0.1225010946831184</v>
       </c>
       <c r="J10" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K10" t="n">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004820104851923745</v>
+        <v>0.006290821250134138</v>
       </c>
       <c r="M10" t="n">
-        <v>7.951860949841277</v>
+        <v>7.988822532955286</v>
       </c>
       <c r="N10" t="n">
-        <v>108.926293690717</v>
+        <v>109.2442998631034</v>
       </c>
       <c r="O10" t="n">
-        <v>10.43677601995544</v>
+        <v>10.45199980210024</v>
       </c>
       <c r="P10" t="n">
-        <v>367.4052763518501</v>
+        <v>367.5700597093279</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27583,7 +27877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K566"/>
+  <dimension ref="A1:K572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54925,6 +55219,348 @@
         </is>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>-45.362280983859954,170.86245808836046</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-45.362918920946235,170.86248243888036</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-45.36351601807829,170.86246602189937</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>-45.36404233499306,170.8628497527353</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>-45.364651840714,170.86304133596502</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>-45.36528063194408,170.86323134476783</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>-45.36586254584825,170.86353288832328</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>-45.366362173975745,170.8639351847226</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>-45.36658293200845,170.8647296839948</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-45.36228966934611,170.86230049022763</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-45.3629167037596,170.86232636856474</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-45.363524256062,170.86233353025693</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-45.36407606591767,170.8627057067545</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>-45.36468183249018,170.86293017423753</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>-45.36530453835506,170.86312085187814</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>-45.365890695784714,170.86341535297134</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>-45.36638577815534,170.86389201430939</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>-45.36673527435047,170.8645525555712</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>-45.36229223739779,170.8622538921667</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>-45.362914816367166,170.86219352467822</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>-45.36352345756938,170.8623463725385</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>-45.36409533929784,170.8626234004597</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>-45.36471284463658,170.86281523005184</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>-45.36532173122175,170.86304138791024</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>-45.36590639043261,170.86334982232137</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>-45.36644192073818,170.86378933313637</t>
+        </is>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>-45.366794290399746,170.86448393726798</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>-45.36228989440204,170.86229640653474</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>-45.36291709598286,170.8623539765161</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>-45.36352298321665,170.86235400161652</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>-45.36410213775948,170.86259436779304</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>-45.36469939708734,170.86286507244944</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>-45.365295827889206,170.8631611107938</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>-45.36590366676658,170.86336119459463</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>-45.36642631333045,170.86381787811928</t>
+        </is>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>-45.36677069790424,170.8645113684229</t>
+        </is>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-45.36228220798927,170.86243587677845</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>-45.36291952506285,170.8625249659483</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>-45.36350642798517,170.8626202563707</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>-45.36406360674048,170.86275891306812</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>-45.364640697207335,170.86308263820203</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>-45.36529176188007,170.86317990346078</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>-45.36587570372865,170.86347794987233</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>-45.36635351542896,170.86395102058955</t>
+        </is>
+      </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>-45.36665238734775,170.8646489284411</t>
+        </is>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-45.36228784211599,170.8623336456482</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>-45.362918925521626,170.86248276096305</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>-45.36351450802803,170.8624903077919</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>-45.36408200710508,170.8626803351551</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>-45.364658399322835,170.86301702713644</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>-45.365296603166854,170.86315752754004</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>-45.365897945748394,170.8633850818589</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>-45.36637077737028,170.86391944971632</t>
+        </is>
+      </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>-45.36673165544033,170.8645567632927</t>
+        </is>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K572"/>
+  <dimension ref="A1:K576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20293,6 +20293,156 @@
         <v>356.76</v>
       </c>
       <c r="K572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>367.1918181818182</v>
+      </c>
+      <c r="C573" t="n">
+        <v>361.3466666666667</v>
+      </c>
+      <c r="D573" t="n">
+        <v>370.35</v>
+      </c>
+      <c r="E573" t="n">
+        <v>377.4344444444445</v>
+      </c>
+      <c r="F573" t="n">
+        <v>369.0018181818182</v>
+      </c>
+      <c r="G573" t="n">
+        <v>355.8118181818182</v>
+      </c>
+      <c r="H573" t="n">
+        <v>363.2618181818182</v>
+      </c>
+      <c r="I573" t="n">
+        <v>371.39</v>
+      </c>
+      <c r="J573" t="n">
+        <v>378.49</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>365.29</v>
+      </c>
+      <c r="C574" t="n">
+        <v>359.5561904761905</v>
+      </c>
+      <c r="D574" t="n">
+        <v>374.89</v>
+      </c>
+      <c r="E574" t="n">
+        <v>380.5722222222223</v>
+      </c>
+      <c r="F574" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="G574" t="n">
+        <v>352.94</v>
+      </c>
+      <c r="H574" t="n">
+        <v>362.9</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>368.5781818181818</v>
+      </c>
+      <c r="C575" t="n">
+        <v>363.0309523809524</v>
+      </c>
+      <c r="D575" t="n">
+        <v>391.91</v>
+      </c>
+      <c r="E575" t="n">
+        <v>385.1544444444445</v>
+      </c>
+      <c r="F575" t="n">
+        <v>376.9181818181818</v>
+      </c>
+      <c r="G575" t="n">
+        <v>356.6881818181818</v>
+      </c>
+      <c r="H575" t="n">
+        <v>366.2181818181818</v>
+      </c>
+      <c r="I575" t="n">
+        <v>374.09</v>
+      </c>
+      <c r="J575" t="n">
+        <v>386.16</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>345.87</v>
+      </c>
+      <c r="C576" t="n">
+        <v>340.0285714285715</v>
+      </c>
+      <c r="D576" t="n">
+        <v>351.94</v>
+      </c>
+      <c r="E576" t="n">
+        <v>351.3433333333333</v>
+      </c>
+      <c r="F576" t="n">
+        <v>346.06</v>
+      </c>
+      <c r="G576" t="n">
+        <v>328.25</v>
+      </c>
+      <c r="H576" t="n">
+        <v>333.94</v>
+      </c>
+      <c r="I576" t="n">
+        <v>346.69</v>
+      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20309,7 +20459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27027,6 +27177,46 @@
       </c>
       <c r="B671" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -27200,28 +27390,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1145084797332526</v>
+        <v>-0.1026914856343729</v>
       </c>
       <c r="J2" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K2" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005771166938568051</v>
+        <v>0.004682484305420842</v>
       </c>
       <c r="M2" t="n">
-        <v>7.528439963343391</v>
+        <v>7.55853805671963</v>
       </c>
       <c r="N2" t="n">
-        <v>101.5194563916145</v>
+        <v>101.6979579133791</v>
       </c>
       <c r="O2" t="n">
-        <v>10.07568639803832</v>
+        <v>10.08454054051939</v>
       </c>
       <c r="P2" t="n">
-        <v>358.6615431960274</v>
+        <v>358.5260306823319</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27272,28 +27462,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-6.331475131818467</v>
+        <v>-6.260892895009896</v>
       </c>
       <c r="J3" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K3" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3876653811109521</v>
+        <v>0.3863292444296973</v>
       </c>
       <c r="M3" t="n">
-        <v>39.44570814088932</v>
+        <v>39.27831835386672</v>
       </c>
       <c r="N3" t="n">
-        <v>2793.509332687129</v>
+        <v>2774.496485742641</v>
       </c>
       <c r="O3" t="n">
-        <v>52.85365959597432</v>
+        <v>52.67348940162064</v>
       </c>
       <c r="P3" t="n">
-        <v>487.3421264459035</v>
+        <v>486.5157685875365</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27350,28 +27540,28 @@
         <v>0.0544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04498288037960756</v>
+        <v>0.05696856205805122</v>
       </c>
       <c r="J4" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K4" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008866714527804298</v>
+        <v>0.001418509816118019</v>
       </c>
       <c r="M4" t="n">
-        <v>7.569394878398024</v>
+        <v>7.614760930785597</v>
       </c>
       <c r="N4" t="n">
-        <v>102.8364851716196</v>
+        <v>104.060502453177</v>
       </c>
       <c r="O4" t="n">
-        <v>10.14083256797092</v>
+        <v>10.20100497270622</v>
       </c>
       <c r="P4" t="n">
-        <v>364.7303191012319</v>
+        <v>364.5948068598574</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27428,28 +27618,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02860842903524592</v>
+        <v>0.04030034305825796</v>
       </c>
       <c r="J5" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K5" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003693782384137645</v>
+        <v>0.000732292298097903</v>
       </c>
       <c r="M5" t="n">
-        <v>7.720583383664052</v>
+        <v>7.777489221357155</v>
       </c>
       <c r="N5" t="n">
-        <v>101.7049768086005</v>
+        <v>102.6742033921765</v>
       </c>
       <c r="O5" t="n">
-        <v>10.08488853724227</v>
+        <v>10.13282800565452</v>
       </c>
       <c r="P5" t="n">
-        <v>366.2831385242563</v>
+        <v>366.1514679976568</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27506,28 +27696,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07559115704730057</v>
+        <v>-0.06925990985424382</v>
       </c>
       <c r="J6" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K6" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00248595646736427</v>
+        <v>0.002100433548920644</v>
       </c>
       <c r="M6" t="n">
-        <v>7.345811170612455</v>
+        <v>7.38045724009771</v>
       </c>
       <c r="N6" t="n">
-        <v>103.5621949934867</v>
+        <v>103.9308101612195</v>
       </c>
       <c r="O6" t="n">
-        <v>10.17655123278445</v>
+        <v>10.19464615183968</v>
       </c>
       <c r="P6" t="n">
-        <v>363.9210986097381</v>
+        <v>363.8494420307094</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27584,28 +27774,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1787356564585659</v>
+        <v>-0.1735417312945588</v>
       </c>
       <c r="J7" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K7" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01611866283824981</v>
+        <v>0.01526133865569568</v>
       </c>
       <c r="M7" t="n">
-        <v>6.950529137822825</v>
+        <v>6.98523300763164</v>
       </c>
       <c r="N7" t="n">
-        <v>88.00850866338385</v>
+        <v>88.50723485023498</v>
       </c>
       <c r="O7" t="n">
-        <v>9.381285021967079</v>
+        <v>9.407828381206524</v>
       </c>
       <c r="P7" t="n">
-        <v>350.1570902876945</v>
+        <v>350.098096108769</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27662,28 +27852,28 @@
         <v>0.0598</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2364158318215005</v>
+        <v>-0.2215337990289842</v>
       </c>
       <c r="J8" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K8" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02460932687133366</v>
+        <v>0.0216163618189541</v>
       </c>
       <c r="M8" t="n">
-        <v>7.34234958442856</v>
+        <v>7.401809008068118</v>
       </c>
       <c r="N8" t="n">
-        <v>100.6467935295647</v>
+        <v>101.8468526436304</v>
       </c>
       <c r="O8" t="n">
-        <v>10.03228755217696</v>
+        <v>10.09192016633259</v>
       </c>
       <c r="P8" t="n">
-        <v>354.6601942750611</v>
+        <v>354.4910720216931</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27740,28 +27930,28 @@
         <v>0.0529</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1434721474875466</v>
+        <v>-0.1343692302738715</v>
       </c>
       <c r="J9" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K9" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009443272354068388</v>
+        <v>0.008297859354216119</v>
       </c>
       <c r="M9" t="n">
-        <v>7.210758451953709</v>
+        <v>7.247802973223479</v>
       </c>
       <c r="N9" t="n">
-        <v>98.4341390099227</v>
+        <v>99.07212849399556</v>
       </c>
       <c r="O9" t="n">
-        <v>9.921398037067291</v>
+        <v>9.953498304314698</v>
       </c>
       <c r="P9" t="n">
-        <v>361.3531252703766</v>
+        <v>361.2501115343601</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27818,28 +28008,28 @@
         <v>0.0461</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1225010946831184</v>
+        <v>-0.1048468587894247</v>
       </c>
       <c r="J10" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K10" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006290821250134138</v>
+        <v>0.004594864656161768</v>
       </c>
       <c r="M10" t="n">
-        <v>7.988822532955286</v>
+        <v>8.035606963482214</v>
       </c>
       <c r="N10" t="n">
-        <v>109.2442998631034</v>
+        <v>110.2890991250436</v>
       </c>
       <c r="O10" t="n">
-        <v>10.45199980210024</v>
+        <v>10.50186169805352</v>
       </c>
       <c r="P10" t="n">
-        <v>367.5700597093279</v>
+        <v>367.3713802878169</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27877,7 +28067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K572"/>
+  <dimension ref="A1:K576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55561,6 +55751,222 @@
         </is>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-45.3622769665176,170.86253098167683</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>-45.362919759436494,170.86254146508978</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>-45.36350971694423,170.86256736145396</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>-45.36402783650101,170.86291166742112</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>-45.36462862383953,170.86312738679</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>-45.3652608346652,170.86332284523758</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>-45.36584275108226,170.86361553768248</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>-45.36629819994521,170.86405218846687</t>
+        </is>
+      </c>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>-45.36658042660428,170.86473259701708</t>
+        </is>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>-45.3622783003238,170.8625067803101</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>-45.3629194348521,170.86251861545006</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>-45.36350612755017,170.8626250881176</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>-45.36401893567069,170.8629496776392</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>-45.36462702146337,170.86313332581167</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>-45.36526841707021,170.86328780038744</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>-45.36584379845376,170.86361116458562</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>-45.36227599421299,170.86254862368597</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>-45.3629200647661,170.8625629595518</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>-45.363492671014434,170.86284149947517</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>-45.364005937409495,170.86300518545823</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>-45.36460316122646,170.86322176084033</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>-45.36525852081736,170.86333353951738</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>-45.36583419315605,170.86365126961363</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>-45.36628330942012,170.86407942205938</t>
+        </is>
+      </c>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>-45.36652704755751,170.8647946605134</t>
+        </is>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>-45.362291919898894,170.86225965329754</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>-45.36291589451368,170.86226940855616</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>-45.36352427187372,170.86233327595434</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>-45.36410184779279,170.86259560608957</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>-45.36470241467371,170.8628538879865</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>-45.36533360513997,170.862986507491</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>-45.365927629724894,170.8632611405292</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>-45.36643442035942,170.8638030508686</t>
+        </is>
+      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K576"/>
+  <dimension ref="A1:K577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20441,10 +20441,51 @@
       <c r="I576" t="n">
         <v>346.69</v>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>345.9</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>353.7681818181818</v>
+      </c>
+      <c r="C577" t="n">
+        <v>348.1</v>
+      </c>
+      <c r="D577" t="n">
+        <v>359.05</v>
+      </c>
+      <c r="E577" t="n">
+        <v>365.1566666666667</v>
+      </c>
+      <c r="F577" t="n">
+        <v>353.9881818181818</v>
+      </c>
+      <c r="G577" t="n">
+        <v>346.5981818181818</v>
+      </c>
+      <c r="H577" t="n">
+        <v>346.8181818181818</v>
+      </c>
+      <c r="I577" t="n">
+        <v>353.06</v>
+      </c>
+      <c r="J577" t="n">
+        <v>359.47</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20459,7 +20500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B675"/>
+  <dimension ref="A1:B676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27217,6 +27258,16 @@
       </c>
       <c r="B675" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -27390,28 +27441,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1026914856343729</v>
+        <v>-0.103728563307964</v>
       </c>
       <c r="J2" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K2" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004682484305420842</v>
+        <v>0.00479888327951572</v>
       </c>
       <c r="M2" t="n">
-        <v>7.55853805671963</v>
+        <v>7.545836717220692</v>
       </c>
       <c r="N2" t="n">
-        <v>101.6979579133791</v>
+        <v>101.4685357978171</v>
       </c>
       <c r="O2" t="n">
-        <v>10.08454054051939</v>
+        <v>10.07315917663456</v>
       </c>
       <c r="P2" t="n">
-        <v>358.5260306823319</v>
+        <v>358.5379627651355</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27462,28 +27513,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-6.260892895009896</v>
+        <v>-6.248062916847367</v>
       </c>
       <c r="J3" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K3" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3863292444296973</v>
+        <v>0.3864549347292418</v>
       </c>
       <c r="M3" t="n">
-        <v>39.27831835386672</v>
+        <v>39.21991754278035</v>
       </c>
       <c r="N3" t="n">
-        <v>2774.496485742641</v>
+        <v>2768.381784530111</v>
       </c>
       <c r="O3" t="n">
-        <v>52.67348940162064</v>
+        <v>52.61541394430068</v>
       </c>
       <c r="P3" t="n">
-        <v>486.5157685875365</v>
+        <v>486.3651878790676</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27540,28 +27591,28 @@
         <v>0.0544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05696856205805122</v>
+        <v>0.05367777588721737</v>
       </c>
       <c r="J4" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001418509816118019</v>
+        <v>0.001264066038645484</v>
       </c>
       <c r="M4" t="n">
-        <v>7.614760930785597</v>
+        <v>7.614768953756922</v>
       </c>
       <c r="N4" t="n">
-        <v>104.060502453177</v>
+        <v>103.9394375830613</v>
       </c>
       <c r="O4" t="n">
-        <v>10.20100497270622</v>
+        <v>10.19506927799224</v>
       </c>
       <c r="P4" t="n">
-        <v>364.5948068598574</v>
+        <v>364.6321144288027</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27618,28 +27669,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04030034305825796</v>
+        <v>0.03939936214485434</v>
       </c>
       <c r="J5" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K5" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000732292298097903</v>
+        <v>0.000702899361643472</v>
       </c>
       <c r="M5" t="n">
-        <v>7.777489221357155</v>
+        <v>7.765287995950581</v>
       </c>
       <c r="N5" t="n">
-        <v>102.6742033921765</v>
+        <v>102.4649365417962</v>
       </c>
       <c r="O5" t="n">
-        <v>10.13282800565452</v>
+        <v>10.1224965567688</v>
       </c>
       <c r="P5" t="n">
-        <v>366.1514679976568</v>
+        <v>366.1616482325881</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27696,28 +27747,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06925990985424382</v>
+        <v>-0.0730372451413225</v>
       </c>
       <c r="J6" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K6" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002100433548920644</v>
+        <v>0.002342674708166848</v>
       </c>
       <c r="M6" t="n">
-        <v>7.38045724009771</v>
+        <v>7.382287259488416</v>
       </c>
       <c r="N6" t="n">
-        <v>103.9308101612195</v>
+        <v>103.8445710523283</v>
       </c>
       <c r="O6" t="n">
-        <v>10.19464615183968</v>
+        <v>10.19041564669118</v>
       </c>
       <c r="P6" t="n">
-        <v>363.8494420307094</v>
+        <v>363.8923657606215</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27774,28 +27825,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1735417312945588</v>
+        <v>-0.1730976685099486</v>
       </c>
       <c r="J7" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K7" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01526133865569568</v>
+        <v>0.01525016368889953</v>
       </c>
       <c r="M7" t="n">
-        <v>6.98523300763164</v>
+        <v>6.971802171401827</v>
       </c>
       <c r="N7" t="n">
-        <v>88.50723485023498</v>
+        <v>88.31770038879185</v>
       </c>
       <c r="O7" t="n">
-        <v>9.407828381206524</v>
+        <v>9.39774975133898</v>
       </c>
       <c r="P7" t="n">
-        <v>350.098096108769</v>
+        <v>350.0930263283934</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27852,28 +27903,28 @@
         <v>0.0598</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2215337990289842</v>
+        <v>-0.222446909489707</v>
       </c>
       <c r="J8" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K8" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0216163618189541</v>
+        <v>0.0218849325123941</v>
       </c>
       <c r="M8" t="n">
-        <v>7.401809008068118</v>
+        <v>7.39031637190523</v>
       </c>
       <c r="N8" t="n">
-        <v>101.8468526436304</v>
+        <v>101.6280495076263</v>
       </c>
       <c r="O8" t="n">
-        <v>10.09192016633259</v>
+        <v>10.08107382710921</v>
       </c>
       <c r="P8" t="n">
-        <v>354.4910720216931</v>
+        <v>354.5014831549169</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27930,28 +27981,28 @@
         <v>0.0529</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1343692302738715</v>
+        <v>-0.1366167250092107</v>
       </c>
       <c r="J9" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K9" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008297859354216119</v>
+        <v>0.008610309128478044</v>
       </c>
       <c r="M9" t="n">
-        <v>7.247802973223479</v>
+        <v>7.243789126037793</v>
       </c>
       <c r="N9" t="n">
-        <v>99.07212849399556</v>
+        <v>98.89777696358202</v>
       </c>
       <c r="O9" t="n">
-        <v>9.953498304314698</v>
+        <v>9.944736143487267</v>
       </c>
       <c r="P9" t="n">
-        <v>361.2501115343601</v>
+        <v>361.2756430069167</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28008,28 +28059,28 @@
         <v>0.0461</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1048468587894247</v>
+        <v>-0.1165491277617034</v>
       </c>
       <c r="J10" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K10" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004594864656161768</v>
+        <v>0.005680457134793482</v>
       </c>
       <c r="M10" t="n">
-        <v>8.035606963482214</v>
+        <v>8.052817533623843</v>
       </c>
       <c r="N10" t="n">
-        <v>110.2890991250436</v>
+        <v>110.6523010932667</v>
       </c>
       <c r="O10" t="n">
-        <v>10.50186169805352</v>
+        <v>10.51913975062917</v>
       </c>
       <c r="P10" t="n">
-        <v>367.3713802878169</v>
+        <v>367.503328722257</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28067,7 +28118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K576"/>
+  <dimension ref="A1:K577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55960,10 +56011,71 @@
           <t>-45.36643442035942,170.8638030508686</t>
         </is>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>-45.366807234951786,170.86446888653603</t>
+        </is>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>-45.362286380834966,170.8623601607285</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>-45.36291735792176,170.86237241422816</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>-45.36351865077126,170.86242368052393</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>-45.3640626643428,170.86276293752655</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>-45.36467691427924,170.8629484031647</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>-45.36528516120922,170.86321041103145</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>-45.3658903510494,170.8634167923598</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>-45.366399289885976,170.86386730225772</t>
+        </is>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>-45.366712795348306,170.86457869198625</t>
+        </is>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K577"/>
+  <dimension ref="A1:K579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20486,6 +20486,84 @@
       <c r="K577" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>364.4581818181818</v>
+      </c>
+      <c r="C578" t="n">
+        <v>358.87</v>
+      </c>
+      <c r="D578" t="n">
+        <v>383.76</v>
+      </c>
+      <c r="E578" t="n">
+        <v>375.1266666666667</v>
+      </c>
+      <c r="F578" t="n">
+        <v>373.0881818181818</v>
+      </c>
+      <c r="G578" t="n">
+        <v>348.8581818181818</v>
+      </c>
+      <c r="H578" t="n">
+        <v>360.0381818181818</v>
+      </c>
+      <c r="I578" t="n">
+        <v>370.14</v>
+      </c>
+      <c r="J578" t="n">
+        <v>379.14</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>353.6427272727273</v>
+      </c>
+      <c r="C579" t="n">
+        <v>349.6138095238095</v>
+      </c>
+      <c r="D579" t="n">
+        <v>360.93</v>
+      </c>
+      <c r="E579" t="n">
+        <v>365.2144444444445</v>
+      </c>
+      <c r="F579" t="n">
+        <v>355.7227272727272</v>
+      </c>
+      <c r="G579" t="n">
+        <v>339.2627272727273</v>
+      </c>
+      <c r="H579" t="n">
+        <v>346.6727272727272</v>
+      </c>
+      <c r="I579" t="n">
+        <v>353.29</v>
+      </c>
+      <c r="J579" t="n">
+        <v>359.06</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -20500,7 +20578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B676"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27268,6 +27346,26 @@
       </c>
       <c r="B676" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -27441,28 +27539,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.103728563307964</v>
+        <v>-0.1006154469762349</v>
       </c>
       <c r="J2" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K2" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00479888327951572</v>
+        <v>0.004550604226960075</v>
       </c>
       <c r="M2" t="n">
-        <v>7.545836717220692</v>
+        <v>7.535431482046868</v>
       </c>
       <c r="N2" t="n">
-        <v>101.4685357978171</v>
+        <v>101.1766127997459</v>
       </c>
       <c r="O2" t="n">
-        <v>10.07315917663456</v>
+        <v>10.05865859842881</v>
       </c>
       <c r="P2" t="n">
-        <v>358.5379627651355</v>
+        <v>358.5020663506993</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27513,28 +27611,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-6.248062916847367</v>
+        <v>-6.215353877586104</v>
       </c>
       <c r="J3" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K3" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3864549347292418</v>
+        <v>0.3860069569547979</v>
       </c>
       <c r="M3" t="n">
-        <v>39.21991754278035</v>
+        <v>39.13160038044339</v>
       </c>
       <c r="N3" t="n">
-        <v>2768.381784530111</v>
+        <v>2758.156148771594</v>
       </c>
       <c r="O3" t="n">
-        <v>52.61541394430068</v>
+        <v>52.5181506602393</v>
       </c>
       <c r="P3" t="n">
-        <v>486.3651878790676</v>
+        <v>485.979845279508</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27591,28 +27689,28 @@
         <v>0.0544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05367777588721737</v>
+        <v>0.05956112505787799</v>
       </c>
       <c r="J4" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K4" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001264066038645484</v>
+        <v>0.001559173553532078</v>
       </c>
       <c r="M4" t="n">
-        <v>7.614768953756922</v>
+        <v>7.629021582485682</v>
       </c>
       <c r="N4" t="n">
-        <v>103.9394375830613</v>
+        <v>104.226988741855</v>
       </c>
       <c r="O4" t="n">
-        <v>10.19506927799224</v>
+        <v>10.20916199998095</v>
       </c>
       <c r="P4" t="n">
-        <v>364.6321144288027</v>
+        <v>364.5652818833967</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27669,28 +27767,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03939936214485434</v>
+        <v>0.04202824568679547</v>
       </c>
       <c r="J5" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K5" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000702899361643472</v>
+        <v>0.0008055924113733459</v>
       </c>
       <c r="M5" t="n">
-        <v>7.765287995950581</v>
+        <v>7.753434452629081</v>
       </c>
       <c r="N5" t="n">
-        <v>102.4649365417962</v>
+        <v>102.1728911894956</v>
       </c>
       <c r="O5" t="n">
-        <v>10.1224965567688</v>
+        <v>10.10806070369068</v>
       </c>
       <c r="P5" t="n">
-        <v>366.1616482325881</v>
+        <v>366.1318785761339</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27747,28 +27845,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0730372451413225</v>
+        <v>-0.07081831181810253</v>
       </c>
       <c r="J6" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K6" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002342674708166848</v>
+        <v>0.002215431103079535</v>
       </c>
       <c r="M6" t="n">
-        <v>7.382287259488416</v>
+        <v>7.387802263675861</v>
       </c>
       <c r="N6" t="n">
-        <v>103.8445710523283</v>
+        <v>103.744623065398</v>
       </c>
       <c r="O6" t="n">
-        <v>10.19041564669118</v>
+        <v>10.18551044697309</v>
       </c>
       <c r="P6" t="n">
-        <v>363.8923657606215</v>
+        <v>363.867142975626</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27825,28 +27923,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1730976685099486</v>
+        <v>-0.1745197644987939</v>
       </c>
       <c r="J7" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K7" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01525016368889953</v>
+        <v>0.015614390146376</v>
       </c>
       <c r="M7" t="n">
-        <v>6.971802171401827</v>
+        <v>6.963740670837842</v>
       </c>
       <c r="N7" t="n">
-        <v>88.31770038879185</v>
+        <v>88.04636531651259</v>
       </c>
       <c r="O7" t="n">
-        <v>9.39774975133898</v>
+        <v>9.383302473890128</v>
       </c>
       <c r="P7" t="n">
-        <v>350.0930263283934</v>
+        <v>350.109369928149</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27903,28 +28001,28 @@
         <v>0.0598</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.222446909489707</v>
+        <v>-0.2181901194119595</v>
       </c>
       <c r="J8" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K8" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0218849325123941</v>
+        <v>0.02119961054145514</v>
       </c>
       <c r="M8" t="n">
-        <v>7.39031637190523</v>
+        <v>7.384141687949692</v>
       </c>
       <c r="N8" t="n">
-        <v>101.6280495076263</v>
+        <v>101.4676818248942</v>
       </c>
       <c r="O8" t="n">
-        <v>10.08107382710921</v>
+        <v>10.07311678801026</v>
       </c>
       <c r="P8" t="n">
-        <v>354.5014831549169</v>
+        <v>354.4528305049635</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27981,28 +28079,28 @@
         <v>0.0529</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1366167250092107</v>
+        <v>-0.1328737072930876</v>
       </c>
       <c r="J9" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K9" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008610309128478044</v>
+        <v>0.008191724620983054</v>
       </c>
       <c r="M9" t="n">
-        <v>7.243789126037793</v>
+        <v>7.24628853262809</v>
       </c>
       <c r="N9" t="n">
-        <v>98.89777696358202</v>
+        <v>98.84181487423228</v>
       </c>
       <c r="O9" t="n">
-        <v>9.944736143487267</v>
+        <v>9.941922091539054</v>
       </c>
       <c r="P9" t="n">
-        <v>361.2756430069167</v>
+        <v>361.2330477789549</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28059,28 +28157,28 @@
         <v>0.0461</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1165491277617034</v>
+        <v>-0.1120839251535261</v>
       </c>
       <c r="J10" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K10" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005680457134793482</v>
+        <v>0.005278912536575753</v>
       </c>
       <c r="M10" t="n">
-        <v>8.052817533623843</v>
+        <v>8.062458324605471</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6523010932667</v>
+        <v>110.7040058558876</v>
       </c>
       <c r="O10" t="n">
-        <v>10.51913975062917</v>
+        <v>10.5215971152619</v>
       </c>
       <c r="P10" t="n">
-        <v>367.503328722257</v>
+        <v>367.4528571263498</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28118,7 +28216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K577"/>
+  <dimension ref="A1:K579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56079,6 +56177,120 @@
         </is>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>-45.362278883703,170.86249619510397</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>-45.362919310455645,170.86250985844728</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>-45.363499114706656,170.86273787125086</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>-45.36403438288959,170.86288371159827</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>-45.36461548025213,170.86317610193078</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>-45.365279194195615,170.86323798986948</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>-45.36585208268255,170.8635765753619</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>-45.36630509370454,170.86403958031735</t>
+        </is>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>-45.36657590295766,170.86473785663998</t>
+        </is>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>-45.362286468818034,170.86235856427086</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>-45.36291763237598,170.86239173311003</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>-45.36351716444804,170.8624475849645</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>-45.36406250044754,170.86276363743232</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>-45.364671335234895,170.86296908139704</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>-45.36530452875413,170.86312089625284</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>-45.36589077210017,170.86341503432809</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>-45.36639802143803,170.8638696221651</t>
+        </is>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>-45.366715648720465,170.86457537436198</t>
+        </is>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K579"/>
+  <dimension ref="A1:K580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20562,6 +20562,45 @@
         <v>359.06</v>
       </c>
       <c r="K579" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>361.7163636363636</v>
+      </c>
+      <c r="C580" t="n">
+        <v>353.4152380952381</v>
+      </c>
+      <c r="D580" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="E580" t="n">
+        <v>363.3577777777778</v>
+      </c>
+      <c r="F580" t="n">
+        <v>358.3863636363636</v>
+      </c>
+      <c r="G580" t="n">
+        <v>344.4763636363636</v>
+      </c>
+      <c r="H580" t="n">
+        <v>343.6463636363636</v>
+      </c>
+      <c r="I580" t="n">
+        <v>354.36</v>
+      </c>
+      <c r="J580" t="n">
+        <v>366.78</v>
+      </c>
+      <c r="K580" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20578,7 +20617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27366,6 +27405,26 @@
       </c>
       <c r="B678" t="n">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -27539,28 +27598,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1006154469762349</v>
+        <v>-0.09776825501902449</v>
       </c>
       <c r="J2" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K2" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004550604226960075</v>
+        <v>0.004314582419512769</v>
       </c>
       <c r="M2" t="n">
-        <v>7.535431482046868</v>
+        <v>7.531048920662219</v>
       </c>
       <c r="N2" t="n">
-        <v>101.1766127997459</v>
+        <v>101.0185312482988</v>
       </c>
       <c r="O2" t="n">
-        <v>10.05865859842881</v>
+        <v>10.05079754289672</v>
       </c>
       <c r="P2" t="n">
-        <v>358.5020663506993</v>
+        <v>358.469089095525</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27611,28 +27670,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-6.215353877586104</v>
+        <v>-6.199492827529976</v>
       </c>
       <c r="J3" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K3" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3860069569547979</v>
+        <v>0.3858289659170058</v>
       </c>
       <c r="M3" t="n">
-        <v>39.13160038044339</v>
+        <v>39.08617609049202</v>
       </c>
       <c r="N3" t="n">
-        <v>2758.156148771594</v>
+        <v>2752.91196677835</v>
       </c>
       <c r="O3" t="n">
-        <v>52.5181506602393</v>
+        <v>52.46819957629907</v>
       </c>
       <c r="P3" t="n">
-        <v>485.979845279508</v>
+        <v>485.7924121201347</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27689,28 +27748,28 @@
         <v>0.0544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05956112505787799</v>
+        <v>0.05787548676944621</v>
       </c>
       <c r="J4" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K4" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001559173553532078</v>
+        <v>0.001478711064597515</v>
       </c>
       <c r="M4" t="n">
-        <v>7.629021582485682</v>
+        <v>7.62087393167814</v>
       </c>
       <c r="N4" t="n">
-        <v>104.226988741855</v>
+        <v>104.0281125806168</v>
       </c>
       <c r="O4" t="n">
-        <v>10.20916199998095</v>
+        <v>10.19941726671759</v>
       </c>
       <c r="P4" t="n">
-        <v>364.5652818833967</v>
+        <v>364.5845143708631</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27767,28 +27826,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04202824568679547</v>
+        <v>0.04032259749095873</v>
       </c>
       <c r="J5" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K5" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008055924113733459</v>
+        <v>0.0007445705988997631</v>
       </c>
       <c r="M5" t="n">
-        <v>7.753434452629081</v>
+        <v>7.7451602842157</v>
       </c>
       <c r="N5" t="n">
-        <v>102.1728911894956</v>
+        <v>101.9886333347524</v>
       </c>
       <c r="O5" t="n">
-        <v>10.10806070369068</v>
+        <v>10.0989421889004</v>
       </c>
       <c r="P5" t="n">
-        <v>366.1318785761339</v>
+        <v>366.1512788393226</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27845,28 +27904,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07081831181810253</v>
+        <v>-0.07251499143855834</v>
       </c>
       <c r="J6" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K6" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002215431103079535</v>
+        <v>0.002332599699928051</v>
       </c>
       <c r="M6" t="n">
-        <v>7.387802263675861</v>
+        <v>7.379692874949135</v>
       </c>
       <c r="N6" t="n">
-        <v>103.744623065398</v>
+        <v>103.5464749942021</v>
       </c>
       <c r="O6" t="n">
-        <v>10.18551044697309</v>
+        <v>10.17577883968604</v>
       </c>
       <c r="P6" t="n">
-        <v>363.867142975626</v>
+        <v>363.8865481410263</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27923,28 +27982,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1745197644987939</v>
+        <v>-0.1750226282962106</v>
       </c>
       <c r="J7" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K7" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L7" t="n">
-        <v>0.015614390146376</v>
+        <v>0.01577120723828418</v>
       </c>
       <c r="M7" t="n">
-        <v>6.963740670837842</v>
+        <v>6.951598209177727</v>
       </c>
       <c r="N7" t="n">
-        <v>88.04636531651259</v>
+        <v>87.85963732361813</v>
       </c>
       <c r="O7" t="n">
-        <v>9.383302473890128</v>
+        <v>9.373347178229244</v>
       </c>
       <c r="P7" t="n">
-        <v>350.109369928149</v>
+        <v>350.1151487051517</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28001,28 +28060,28 @@
         <v>0.0598</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2181901194119595</v>
+        <v>-0.2205760407436621</v>
       </c>
       <c r="J8" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K8" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02119961054145514</v>
+        <v>0.02173901585137594</v>
       </c>
       <c r="M8" t="n">
-        <v>7.384141687949692</v>
+        <v>7.38078102787613</v>
       </c>
       <c r="N8" t="n">
-        <v>101.4676818248942</v>
+        <v>101.3010705373733</v>
       </c>
       <c r="O8" t="n">
-        <v>10.07311678801026</v>
+        <v>10.06484329422835</v>
       </c>
       <c r="P8" t="n">
-        <v>354.4528305049635</v>
+        <v>354.4802156211271</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28079,28 +28138,28 @@
         <v>0.0529</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1328737072930876</v>
+        <v>-0.1344955894392866</v>
       </c>
       <c r="J9" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K9" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008191724620983054</v>
+        <v>0.008427621165168375</v>
       </c>
       <c r="M9" t="n">
-        <v>7.24628853262809</v>
+        <v>7.238847007336155</v>
       </c>
       <c r="N9" t="n">
-        <v>98.84181487423228</v>
+        <v>98.64547163068414</v>
       </c>
       <c r="O9" t="n">
-        <v>9.941922091539054</v>
+        <v>9.932042671610112</v>
       </c>
       <c r="P9" t="n">
-        <v>361.2330477789549</v>
+        <v>361.2515939582578</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28157,28 +28216,28 @@
         <v>0.0461</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1120839251535261</v>
+        <v>-0.1109975494416332</v>
       </c>
       <c r="J10" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K10" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005278912536575753</v>
+        <v>0.005201737905438208</v>
       </c>
       <c r="M10" t="n">
-        <v>8.062458324605471</v>
+        <v>8.048940839361094</v>
       </c>
       <c r="N10" t="n">
-        <v>110.7040058558876</v>
+        <v>110.4575035697117</v>
       </c>
       <c r="O10" t="n">
-        <v>10.5215971152619</v>
+        <v>10.50987647737649</v>
       </c>
       <c r="P10" t="n">
-        <v>367.4528571263498</v>
+        <v>367.4405168433351</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28216,7 +28275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K579"/>
+  <dimension ref="A1:K580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56291,6 +56350,63 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>-45.36228080661588,170.8624613044124</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>-45.36291832156197,170.86244024605068</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>-45.36351592320618,170.86246754771463</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>-45.36406776715662,170.8627411462267</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>-45.36466276782709,170.86300083569787</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>-45.36529076337912,170.86318451842462</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>-45.365899532581466,170.863378456275</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>-45.366392120396945,170.86388041477636</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>-45.36666192179332,170.86463784274338</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K580"/>
+  <dimension ref="A1:K584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20601,6 +20601,162 @@
         <v>366.78</v>
       </c>
       <c r="K580" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>361.2181818181818</v>
+      </c>
+      <c r="C581" t="n">
+        <v>361.1780952380952</v>
+      </c>
+      <c r="D581" t="n">
+        <v>369.18</v>
+      </c>
+      <c r="E581" t="n">
+        <v>362.8711111111111</v>
+      </c>
+      <c r="F581" t="n">
+        <v>361.6181818181818</v>
+      </c>
+      <c r="G581" t="n">
+        <v>349.2281818181818</v>
+      </c>
+      <c r="H581" t="n">
+        <v>348.9381818181818</v>
+      </c>
+      <c r="I581" t="n">
+        <v>362.23</v>
+      </c>
+      <c r="J581" t="n">
+        <v>364.94</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>363.0654545454545</v>
+      </c>
+      <c r="C582" t="n">
+        <v>356.642380952381</v>
+      </c>
+      <c r="D582" t="n">
+        <v>365.74</v>
+      </c>
+      <c r="E582" t="n">
+        <v>374.1444444444445</v>
+      </c>
+      <c r="F582" t="n">
+        <v>358.5554545454545</v>
+      </c>
+      <c r="G582" t="n">
+        <v>350.9854545454546</v>
+      </c>
+      <c r="H582" t="n">
+        <v>352.9254545454546</v>
+      </c>
+      <c r="I582" t="n">
+        <v>359.65</v>
+      </c>
+      <c r="J582" t="n">
+        <v>360.19</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>350.45</v>
+      </c>
+      <c r="C583" t="n">
+        <v>361.4585714285714</v>
+      </c>
+      <c r="D583" t="n">
+        <v>367.68</v>
+      </c>
+      <c r="E583" t="n">
+        <v>359.4433333333333</v>
+      </c>
+      <c r="F583" t="n">
+        <v>358.99</v>
+      </c>
+      <c r="G583" t="n">
+        <v>334.83</v>
+      </c>
+      <c r="H583" t="n">
+        <v>344.6</v>
+      </c>
+      <c r="I583" t="n">
+        <v>356.7</v>
+      </c>
+      <c r="J583" t="n">
+        <v>360.95</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>356.4009090909091</v>
+      </c>
+      <c r="C584" t="n">
+        <v>350.0728571428572</v>
+      </c>
+      <c r="D584" t="n">
+        <v>366.05</v>
+      </c>
+      <c r="E584" t="n">
+        <v>368.5133333333333</v>
+      </c>
+      <c r="F584" t="n">
+        <v>369.5409090909091</v>
+      </c>
+      <c r="G584" t="n">
+        <v>347.110909090909</v>
+      </c>
+      <c r="H584" t="n">
+        <v>353.920909090909</v>
+      </c>
+      <c r="I584" t="n">
+        <v>368.26</v>
+      </c>
+      <c r="J584" t="n">
+        <v>372.01</v>
+      </c>
+      <c r="K584" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20617,7 +20773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27425,6 +27581,46 @@
       </c>
       <c r="B680" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -27598,28 +27794,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09776825501902449</v>
+        <v>-0.09421056649115157</v>
       </c>
       <c r="J2" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K2" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004314582419512769</v>
+        <v>0.004072757495956814</v>
       </c>
       <c r="M2" t="n">
-        <v>7.531048920662219</v>
+        <v>7.503240369183107</v>
       </c>
       <c r="N2" t="n">
-        <v>101.0185312482988</v>
+        <v>100.3333982758535</v>
       </c>
       <c r="O2" t="n">
-        <v>10.05079754289672</v>
+        <v>10.01665604260491</v>
       </c>
       <c r="P2" t="n">
-        <v>358.469089095525</v>
+        <v>358.4277805199649</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27670,28 +27866,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-6.199492827529976</v>
+        <v>-6.12800278556844</v>
       </c>
       <c r="J3" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K3" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3858289659170058</v>
+        <v>0.3842029359263065</v>
       </c>
       <c r="M3" t="n">
-        <v>39.08617609049202</v>
+        <v>38.94300731037118</v>
       </c>
       <c r="N3" t="n">
-        <v>2752.91196677835</v>
+        <v>2734.973611939007</v>
       </c>
       <c r="O3" t="n">
-        <v>52.46819957629907</v>
+        <v>52.29697517007085</v>
       </c>
       <c r="P3" t="n">
-        <v>485.7924121201347</v>
+        <v>484.9440213012834</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27748,28 +27944,28 @@
         <v>0.0544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05787548676944621</v>
+        <v>0.05983877654822339</v>
       </c>
       <c r="J4" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K4" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001478711064597515</v>
+        <v>0.0016095515086052</v>
       </c>
       <c r="M4" t="n">
-        <v>7.62087393167814</v>
+        <v>7.565303307296036</v>
       </c>
       <c r="N4" t="n">
-        <v>104.0281125806168</v>
+        <v>103.1554674847615</v>
       </c>
       <c r="O4" t="n">
-        <v>10.19941726671759</v>
+        <v>10.15654801026222</v>
       </c>
       <c r="P4" t="n">
-        <v>364.5845143708631</v>
+        <v>364.5620411894414</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27826,28 +28022,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04032259749095873</v>
+        <v>0.03865870639327649</v>
       </c>
       <c r="J5" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K5" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007445705988997631</v>
+        <v>0.0006945307987625826</v>
       </c>
       <c r="M5" t="n">
-        <v>7.7451602842157</v>
+        <v>7.722834383790528</v>
       </c>
       <c r="N5" t="n">
-        <v>101.9886333347524</v>
+        <v>101.4045598284919</v>
       </c>
       <c r="O5" t="n">
-        <v>10.0989421889004</v>
+        <v>10.06998310964283</v>
       </c>
       <c r="P5" t="n">
-        <v>366.1512788393226</v>
+        <v>366.1702783149449</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27904,28 +28100,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07251499143855834</v>
+        <v>-0.0721780592115906</v>
       </c>
       <c r="J6" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K6" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002332599699928051</v>
+        <v>0.002349700185704129</v>
       </c>
       <c r="M6" t="n">
-        <v>7.379692874949135</v>
+        <v>7.346859667935033</v>
       </c>
       <c r="N6" t="n">
-        <v>103.5464749942021</v>
+        <v>102.8171619977467</v>
       </c>
       <c r="O6" t="n">
-        <v>10.17577883968604</v>
+        <v>10.13987978221373</v>
       </c>
       <c r="P6" t="n">
-        <v>363.8865481410263</v>
+        <v>363.8826201688556</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27982,28 +28178,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1750226282962106</v>
+        <v>-0.1750704317600209</v>
       </c>
       <c r="J7" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K7" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01577120723828418</v>
+        <v>0.0159949072089246</v>
       </c>
       <c r="M7" t="n">
-        <v>6.951598209177727</v>
+        <v>6.937919838175088</v>
       </c>
       <c r="N7" t="n">
-        <v>87.85963732361813</v>
+        <v>87.45218392066712</v>
       </c>
       <c r="O7" t="n">
-        <v>9.373347178229244</v>
+        <v>9.35158724071305</v>
       </c>
       <c r="P7" t="n">
-        <v>350.1151487051517</v>
+        <v>350.1157542966446</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28060,28 +28256,28 @@
         <v>0.0598</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2205760407436621</v>
+        <v>-0.2180970192386157</v>
       </c>
       <c r="J8" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K8" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02173901585137594</v>
+        <v>0.02161229127283615</v>
       </c>
       <c r="M8" t="n">
-        <v>7.38078102787613</v>
+        <v>7.344218908043275</v>
       </c>
       <c r="N8" t="n">
-        <v>101.3010705373733</v>
+        <v>100.5454434605863</v>
       </c>
       <c r="O8" t="n">
-        <v>10.06484329422835</v>
+        <v>10.02723508553511</v>
       </c>
       <c r="P8" t="n">
-        <v>354.4802156211271</v>
+        <v>354.451625681389</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28138,28 +28334,28 @@
         <v>0.0529</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1344955894392866</v>
+        <v>-0.1271216223230172</v>
       </c>
       <c r="J9" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K9" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008427621165168375</v>
+        <v>0.00765184997814683</v>
       </c>
       <c r="M9" t="n">
-        <v>7.238847007336155</v>
+        <v>7.208571505557275</v>
       </c>
       <c r="N9" t="n">
-        <v>98.64547163068414</v>
+        <v>98.06286218006741</v>
       </c>
       <c r="O9" t="n">
-        <v>9.932042671610112</v>
+        <v>9.902669447177736</v>
       </c>
       <c r="P9" t="n">
-        <v>361.2515939582578</v>
+        <v>361.1668831803767</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28216,28 +28412,28 @@
         <v>0.0461</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1109975494416332</v>
+        <v>-0.1110403989084835</v>
       </c>
       <c r="J10" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K10" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005201737905438208</v>
+        <v>0.005295562291419365</v>
       </c>
       <c r="M10" t="n">
-        <v>8.048940839361094</v>
+        <v>8.011093218200418</v>
       </c>
       <c r="N10" t="n">
-        <v>110.4575035697117</v>
+        <v>109.6399444555432</v>
       </c>
       <c r="O10" t="n">
-        <v>10.50987647737649</v>
+        <v>10.4709094378446</v>
       </c>
       <c r="P10" t="n">
-        <v>367.4405168433351</v>
+        <v>367.4409487927359</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28275,7 +28471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K580"/>
+  <dimension ref="A1:K584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56407,6 +56603,234 @@
         </is>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-45.36228115600341,170.8624549648568</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-45.362919728877415,170.8625393138205</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>-45.363510641959536,170.86255248475769</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-45.36406914765771,170.86273525086517</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-45.36465237288843,170.86303936351456</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>-45.36527821729452,170.86324250498845</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>-45.36588421423132,170.86344241566917</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>-45.36634871737974,170.8639597958768</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>-45.36667472717827,170.86462295391715</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-45.36227986046247,170.86247847211365</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-45.362918906615754,170.8624814300931</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-45.363513361651364,170.86250874472523</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-45.36403716912123,170.86287181321055</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-45.36466222395721,170.8630028514996</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>-45.36527357761187,170.86326394902812</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>-45.3658726721554,170.86349060769362</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>-45.36636294607536,170.86393377260686</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>-45.36670778454819,170.86458451805737</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-45.36228870791568,170.86231793557823</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-45.36291977972287,170.86254289319228</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>-45.363511827873744,170.86253341206955</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>-45.36407887104135,170.8626937275915</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>-45.36466082626993,170.8630080318931</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>-45.3653162322948,170.86306680351635</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>-45.36589677207061,170.8633899823734</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>-45.366379215312726,170.86390401730168</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>-45.366702495369935,170.86459066779796</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-45.362284534460564,170.86239366320189</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-45.362917715600844,170.86239759136808</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>-45.36351311656355,170.86251268641436</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-45.36405314265108,170.86280359935503</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>-45.364626889881386,170.86313381350504</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>-45.3652838074706,170.86321666785602</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>-45.36586979058053,170.86350263921526</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>-45.36631546191581,170.8640206176548</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>-45.36662552386711,170.86468016257663</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0485/nzd0485.xlsx
+++ b/data/nzd0485/nzd0485.xlsx
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0303</v>
+        <v>0.0361</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.0731</v>
       </c>
       <c r="I2" t="n">
         <v>-0.09420886007951226</v>
@@ -27862,9 +27862,15 @@
       <c r="E3" t="n">
         <v>0.1247769042094222</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0384</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1182</v>
+      </c>
       <c r="I3" t="n">
         <v>-6.128011527091525</v>
       </c>
@@ -27935,13 +27941,13 @@
         <v>0.2489838102743828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0446</v>
+        <v>0.0389</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0544</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.05983877654822328</v>
@@ -28013,13 +28019,13 @@
         <v>0.3750226307897909</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0402</v>
+        <v>0.044</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0468</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>0.03863493691306357</v>
@@ -28091,13 +28097,13 @@
         <v>0.5011600372538991</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0485</v>
+        <v>0.0444</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0594</v>
+        <v>0.0876</v>
       </c>
       <c r="I6" t="n">
         <v>-0.07216987298567785</v>
@@ -28169,13 +28175,13 @@
         <v>0.6273961702810397</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0499</v>
+        <v>0.0485</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.103</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1750688251065413</v>
@@ -28247,13 +28253,13 @@
         <v>0.752355183212526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0498</v>
+        <v>0.0583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0598</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2180982746047521</v>
@@ -28325,13 +28331,13 @@
         <v>0.877796084440403</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0447</v>
+        <v>0.0416</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0529</v>
+        <v>0.0901</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1271216223230172</v>
@@ -28403,13 +28409,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0392</v>
+        <v>0.0537</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0461</v>
+        <v>0.089</v>
       </c>
       <c r="I10" t="n">
         <v>-0.1110403989084835</v>
